--- a/radarMap 軟體規格書_v1.0.0.xlsx
+++ b/radarMap 軟體規格書_v1.0.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3986A-0FEE-934D-822E-B60CC788D82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CF7331-2D96-4642-82EF-3B11C8A3E616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2140" windowWidth="38400" windowHeight="21600" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="1" r:id="rId1"/>
@@ -202,20 +202,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -230,7 +230,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -239,7 +239,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1087,10 +1087,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2445,36 +2445,686 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="659">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="658" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="一般 3" xfId="231" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2482,657 +3132,7 @@
     <cellStyle name="一般 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="千分位 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="千分位 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="逗號 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="514" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="516" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="518" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="520" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="522" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="524" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="526" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="528" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="530" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="532" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="534" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="536" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="538" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="540" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="542" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="544" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="546" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="548" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="550" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="552" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="554" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="556" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="558" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="560" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="562" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="564" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="566" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="568" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="570" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="572" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="574" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="576" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="578" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="580" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="582" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="584" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="586" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="588" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="590" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="592" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="594" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="596" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="598" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="600" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="602" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="604" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="606" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="608" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="610" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="612" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="614" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="616" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="618" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="620" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="622" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="624" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="626" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="628" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="630" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="632" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="634" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="636" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="638" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="640" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="642" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="644" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="646" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="648" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="650" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="652" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="654" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="656" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="658" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3166,16 +3166,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>263768</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19538</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>332155</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>396630</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>511304</xdr:rowOff>
+      <xdr:rowOff>179149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3198,7 +3198,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11762153" y="332155"/>
+          <a:off x="12123615" y="0"/>
           <a:ext cx="7772400" cy="5561995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3505,7 +3505,7 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
@@ -3514,13 +3514,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="19">
       <c r="A2" s="14" t="s">
@@ -3556,7 +3556,7 @@
         <v>44486</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6">
       <c r="A4" s="19"/>
       <c r="B4" s="12"/>
       <c r="C4" s="20"/>
@@ -3564,56 +3564,56 @@
       <c r="E4" s="21"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6">
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="20"/>
       <c r="D5" s="19"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6">
       <c r="A6" s="19"/>
       <c r="B6" s="12"/>
       <c r="C6" s="20"/>
       <c r="D6" s="19"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6">
       <c r="A7" s="19"/>
       <c r="B7" s="12"/>
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6">
       <c r="A8" s="19"/>
       <c r="B8" s="12"/>
       <c r="C8" s="20"/>
       <c r="D8" s="19"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6">
       <c r="A9" s="19"/>
       <c r="B9" s="12"/>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6">
       <c r="A10" s="19"/>
       <c r="B10" s="12"/>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:6" s="13" customFormat="1" ht="16">
+    <row r="11" spans="1:6" s="13" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="12"/>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6">
       <c r="A12" s="22"/>
       <c r="B12" s="11"/>
       <c r="C12" s="23"/>
@@ -3643,11 +3643,11 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="13"/>
@@ -3689,98 +3689,98 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="32"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>200</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="57" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="32" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="25"/>
@@ -3791,46 +3791,46 @@
       <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:18" ht="18">
-      <c r="I14" s="30"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:18" ht="16">
       <c r="A15" s="7"/>
